--- a/lca_optimization_input.xlsx
+++ b/lca_optimization_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marbulu004\OneDrive - UPV EHU\1_LANA\3_Publikazioak\2022\2022_LCA-toolkit-article\0_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marbulu004\Desktop\FROGA\LCA_calculator_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6870" windowHeight="5685" tabRatio="625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13230" tabRatio="625"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>Description</t>
   </si>
@@ -536,6 +536,21 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>IRR_opt</t>
+  </si>
+  <si>
+    <t>Optimal Internal Rate of Return</t>
+  </si>
+  <si>
+    <t>LCPB_opt</t>
+  </si>
+  <si>
+    <t>Optimal Life Cyle Payback</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1068,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1362,25 +1377,37 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
